--- a/src/main/webapp/importDate/Students_model.xlsx
+++ b/src/main/webapp/importDate/Students_model.xlsx
@@ -14,157 +14,509 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="122">
   <si>
     <t>女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>教育151</t>
   </si>
   <si>
     <t>刘杜娟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>教育科学技术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>410822199511263000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2014级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20151534119</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>院系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>学号（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>姓名（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>专业（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>班级（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>身份证号（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>年级（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>密码（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>艺术学院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20141515302</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20141515306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息工程学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131514111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王石根</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息工程学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科131</t>
+  </si>
+  <si>
+    <t>410822199511263000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131514111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>刘阳阳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科143</t>
+  </si>
+  <si>
+    <t>410822199511263001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20141554203</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛洧鹏</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联142</t>
+  </si>
+  <si>
+    <t>410822199511263002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012级</t>
+  </si>
+  <si>
+    <t>20131554119</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡羊羊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联131</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>410822199511263003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011级</t>
+  </si>
+  <si>
+    <t>20131514116</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时帅帅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">计科131 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级</t>
+  </si>
+  <si>
+    <t>20141524112</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵硕</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>信工141</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151554111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋民举</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联151</t>
+  </si>
+  <si>
+    <t>20151514109</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦祥宇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科151</t>
+  </si>
+  <si>
+    <t>20151514110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁赵雷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科151</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131554120</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄佳佳</t>
+  </si>
+  <si>
+    <t>物联131</t>
+  </si>
+  <si>
+    <t>20141514129</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张雪</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>计科141</t>
+  </si>
+  <si>
+    <t>20141514207</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王伟</t>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息工程学院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学与i技术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计科143</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>410822199511263013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20141515307</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闫锦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息工程学院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学与技术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计科143</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>410822199511230120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20141515307</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育科学技术</t>
+  </si>
+  <si>
+    <t>计科142</t>
+  </si>
+  <si>
+    <t>20141514216</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩秋放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科142</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20141554123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢保</t>
+  </si>
+  <si>
+    <t>物联141</t>
+  </si>
+  <si>
+    <t>20151554114</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高猛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联151</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151514213</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宗远</t>
+  </si>
+  <si>
+    <t>计科152</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131524108</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋子庆</t>
+  </si>
+  <si>
+    <t>机电学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信工131</t>
+  </si>
+  <si>
+    <t>2014210111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩健健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命科技学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>计科1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>41</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140724211</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘国坤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科141</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151514101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪露露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等职业技术学院</t>
+  </si>
+  <si>
+    <t>20131514125</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张梦鸽</t>
+  </si>
+  <si>
+    <t>艺术学院</t>
+  </si>
+  <si>
+    <t>20131554128</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖  红</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131515216</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王孟鸽</t>
+  </si>
+  <si>
+    <t>计科134</t>
+  </si>
+  <si>
+    <t>20130494126</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李智</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品131</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151534104</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白瑞娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教育1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>51</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151534108</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常亚飞</t>
+  </si>
+  <si>
+    <t>20151515131</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹秀娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学化工学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科153</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150124110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙昭君</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源与环境学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,6 +583,60 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -257,45 +663,45 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -304,10 +710,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -316,11 +722,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -338,7 +837,103 @@
     <cellStyle name="常规 5" xfId="6"/>
     <cellStyle name="常规 5 2" xfId="10"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -648,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,52 +1343,52 @@
       <c r="V2" s="4"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -802,14 +1397,809 @@
       <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
+      <c r="B5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">

--- a/src/main/webapp/importDate/Students_model.xlsx
+++ b/src/main/webapp/importDate/Students_model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>女</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -270,55 +270,7 @@
     <cellStyle name="常规 5" xfId="6"/>
     <cellStyle name="常规 5 2" xfId="10"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -628,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,7 +644,9 @@
       <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -726,70 +680,10 @@
       <c r="V2" s="4"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">

--- a/src/main/webapp/importDate/Students_model.xlsx
+++ b/src/main/webapp/importDate/Students_model.xlsx
@@ -14,89 +14,513 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="123">
   <si>
     <t>女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>教育151</t>
   </si>
   <si>
     <t>刘杜娟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>教育科学技术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>410822199511263000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2014级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>院系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号（必填）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（必填）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业（必填）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级（必填）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号（必填）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级（必填）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20141515302</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131514111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王石根</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息工程学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科131</t>
+  </si>
+  <si>
+    <t>410822199511263000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20141515306</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘阳阳</t>
+  </si>
+  <si>
+    <t>资源与环境学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科143</t>
+  </si>
+  <si>
+    <t>410822199511263001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20141554203</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛洧鹏</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联142</t>
+  </si>
+  <si>
+    <t>410822199511263002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012级</t>
+  </si>
+  <si>
+    <t>20131554119</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡羊羊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联131</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>410822199511263003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011级</t>
+  </si>
+  <si>
+    <t>20131514116</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时帅帅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">计科131 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010级</t>
+  </si>
+  <si>
+    <t>20141524112</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵硕</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>信工141</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151554111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋民举</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联151</t>
+  </si>
+  <si>
+    <t>20151514109</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦祥宇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命科技学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科151</t>
+  </si>
+  <si>
+    <t>20151514110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁赵雷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科151</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131554120</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄佳佳</t>
+  </si>
+  <si>
+    <t>教育科学技术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联131</t>
+  </si>
+  <si>
+    <t>20141514129</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张雪</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>计科141</t>
+  </si>
+  <si>
+    <t>20141514207</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王伟</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>教育科学技术</t>
+  </si>
+  <si>
+    <t>计科142</t>
+  </si>
+  <si>
+    <t>20141514216</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩秋放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科142</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20141554123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢保</t>
+  </si>
+  <si>
+    <t>物联141</t>
+  </si>
+  <si>
+    <t>20151554114</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高猛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联151</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151514213</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宗远</t>
+  </si>
+  <si>
+    <t>计科152</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131524108</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋子庆</t>
+  </si>
+  <si>
+    <t>机电学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信工131</t>
+  </si>
+  <si>
+    <t>2014210111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩健健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>计科1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>41</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140724211</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘国坤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科141</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151514101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪露露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等职业技术学院</t>
+  </si>
+  <si>
+    <t>20131514125</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张梦鸽</t>
+  </si>
+  <si>
+    <t>数学科学学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131554128</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖  红</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>20131515216</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王孟鸽</t>
+  </si>
+  <si>
+    <t>计科134</t>
+  </si>
+  <si>
+    <t>20130494126</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李智</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品131</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>20151534119</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>院系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学号（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码（必填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘杜娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151534104</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白瑞娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>艺术学院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20141515302</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教育1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>51</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20151534108</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常亚飞</t>
+  </si>
+  <si>
+    <t>20151515131</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹秀娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学化工学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计科153</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150124110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙昭君</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,6 +587,60 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -189,45 +667,45 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -236,10 +714,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -248,11 +726,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -270,7 +841,103 @@
     <cellStyle name="常规 5" xfId="6"/>
     <cellStyle name="常规 5 2" xfId="10"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -580,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,56 +1263,52 @@
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="17" width="19.875" customWidth="1"/>
-    <col min="18" max="18" width="3.5" customWidth="1"/>
-    <col min="19" max="19" width="3.875" customWidth="1"/>
-    <col min="20" max="20" width="4.375" customWidth="1"/>
-    <col min="21" max="21" width="200.625" customWidth="1"/>
-    <col min="22" max="22" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="19.875" customWidth="1"/>
+    <col min="16" max="16" width="3.5" customWidth="1"/>
+    <col min="17" max="17" width="3.875" customWidth="1"/>
+    <col min="18" max="18" width="4.375" customWidth="1"/>
+    <col min="19" max="19" width="200.625" customWidth="1"/>
+    <col min="20" max="20" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -654,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -668,22 +1331,785 @@
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="4"/>
       <c r="S2" s="2"/>
       <c r="T2" s="4"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
